--- a/DOC/individual1.xlsx
+++ b/DOC/individual1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlguerra\Desktop\Curso python\MODULO-4-BASE-DATOS\1. Bases de Datos Relacionales\individual1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlguerra\Desktop\Curso python\MODULO-4-BASE-DATOS\1. Bases de Datos Relacionales\individual1\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F85CA9A-68AB-49EC-9EBB-0F341339D49E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4596B1-1BF0-403D-8529-E4B6B1A6A5C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0;[Red]0.0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0;[Red]#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0;[Red]0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0;[Red]#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -280,13 +280,77 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -297,70 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
@@ -665,400 +665,400 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="D4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="12">
         <v>10000</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="20">
         <v>5</v>
       </c>
       <c r="H4" s="3">
         <v>0.8</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="12">
         <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="D5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="13">
         <v>8000</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="21">
         <v>5</v>
       </c>
       <c r="H5" s="4">
         <v>0.8</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="13">
         <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="14">
         <v>5000</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>5</v>
       </c>
       <c r="H6" s="5">
         <v>0.8</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="12">
         <v>8000</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="20">
         <v>10</v>
       </c>
       <c r="H7" s="3">
         <v>0.9</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="12">
         <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="13">
         <v>6000</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="21">
         <v>10</v>
       </c>
       <c r="H8" s="4">
         <v>0.9</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="D9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="14">
         <v>2000</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="22">
         <v>10</v>
       </c>
       <c r="H9" s="5">
         <v>0.9</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="32"/>
+      <c r="J9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="14">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="D10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="12">
         <v>15000</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="20">
         <v>6</v>
       </c>
       <c r="H10" s="3">
         <v>0.8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="12">
         <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="D11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="13">
         <v>10000</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="21">
         <v>6</v>
       </c>
       <c r="H11" s="4">
         <v>0.8</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="31"/>
+      <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="13">
         <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="14">
         <v>7000</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="22">
         <v>6</v>
       </c>
       <c r="H12" s="5">
         <v>0.8</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="11" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="D13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="12">
         <v>25000</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="20">
         <v>7</v>
       </c>
       <c r="H13" s="3">
         <v>0.5</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="12">
         <v>16000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="13">
         <v>19000</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="21">
         <v>7</v>
       </c>
       <c r="H14" s="4">
         <v>0.5</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="10" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="13">
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="D15" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="14">
         <v>15000</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="22">
         <v>7</v>
       </c>
       <c r="H15" s="5">
         <v>0.5</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="11" t="s">
+      <c r="I15" s="32"/>
+      <c r="J15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="14">
         <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       <c r="D19">
         <v>10</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="15">
         <f>K4</f>
         <v>3000</v>
       </c>
@@ -1088,7 +1088,7 @@
         <f>G19*1.19</f>
         <v>35700</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="27">
         <v>44177</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1108,7 +1108,7 @@
       <c r="D20">
         <v>10</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="15">
         <f>K13</f>
         <v>16000</v>
       </c>
@@ -1120,10 +1120,10 @@
         <f>G20*1.19</f>
         <v>190400</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="27">
         <v>44178</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="24" t="s">
         <v>31</v>
       </c>
     </row>
